--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H2">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I2">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J2">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N2">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O2">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P2">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q2">
-        <v>7.65611484062889</v>
+        <v>6.042020930108889</v>
       </c>
       <c r="R2">
-        <v>68.90503356565999</v>
+        <v>54.37818837098</v>
       </c>
       <c r="S2">
-        <v>0.004527785644845867</v>
+        <v>0.002735570289219021</v>
       </c>
       <c r="T2">
-        <v>0.004527785644845865</v>
+        <v>0.002735570289219022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H3">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I3">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J3">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>260.960411</v>
       </c>
       <c r="O3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q3">
-        <v>87.44290447389223</v>
+        <v>63.68724332654389</v>
       </c>
       <c r="R3">
-        <v>786.9861402650299</v>
+        <v>573.185189938895</v>
       </c>
       <c r="S3">
-        <v>0.05171326917922716</v>
+        <v>0.02883487704886451</v>
       </c>
       <c r="T3">
-        <v>0.05171326917922715</v>
+        <v>0.02883487704886452</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H4">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I4">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J4">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N4">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q4">
-        <v>26.12676914813444</v>
+        <v>42.32848548784278</v>
       </c>
       <c r="R4">
-        <v>235.1409223332099</v>
+        <v>380.9563693905849</v>
       </c>
       <c r="S4">
-        <v>0.01545123247986806</v>
+        <v>0.01916453925393707</v>
       </c>
       <c r="T4">
-        <v>0.01545123247986806</v>
+        <v>0.01916453925393708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H5">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I5">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J5">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N5">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q5">
-        <v>0.9409204930822221</v>
+        <v>0.8839561176072221</v>
       </c>
       <c r="R5">
-        <v>8.468284437739998</v>
+        <v>7.955605058464999</v>
       </c>
       <c r="S5">
-        <v>0.0005564553811171712</v>
+        <v>0.0004002177616184015</v>
       </c>
       <c r="T5">
-        <v>0.0005564553811171711</v>
+        <v>0.0004002177616184016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J6">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N6">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O6">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P6">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q6">
-        <v>78.14078997363957</v>
+        <v>84.66885898561689</v>
       </c>
       <c r="R6">
-        <v>703.267109762756</v>
+        <v>762.0197308705521</v>
       </c>
       <c r="S6">
-        <v>0.04621204807979328</v>
+        <v>0.03833446089352662</v>
       </c>
       <c r="T6">
-        <v>0.04621204807979326</v>
+        <v>0.03833446089352662</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J7">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>260.960411</v>
       </c>
       <c r="O7">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P7">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q7">
         <v>892.4706297402111</v>
@@ -883,10 +883,10 @@
         <v>8032.235667661898</v>
       </c>
       <c r="S7">
-        <v>0.5278023893189602</v>
+        <v>0.4040727708425716</v>
       </c>
       <c r="T7">
-        <v>0.5278023893189601</v>
+        <v>0.4040727708425717</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J8">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N8">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O8">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P8">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q8">
-        <v>266.6582755342318</v>
+        <v>593.1632164637838</v>
       </c>
       <c r="R8">
-        <v>2399.924479808086</v>
+        <v>5338.468948174053</v>
       </c>
       <c r="S8">
-        <v>0.157700287570931</v>
+        <v>0.268559094777362</v>
       </c>
       <c r="T8">
-        <v>0.157700287570931</v>
+        <v>0.268559094777362</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J9">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N9">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O9">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P9">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q9">
-        <v>9.603339573964888</v>
+        <v>12.38717255979622</v>
       </c>
       <c r="R9">
-        <v>86.43005616568399</v>
+        <v>111.484553038166</v>
       </c>
       <c r="S9">
-        <v>0.005679364007816627</v>
+        <v>0.005608385276049844</v>
       </c>
       <c r="T9">
-        <v>0.005679364007816626</v>
+        <v>0.005608385276049845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H10">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N10">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O10">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P10">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q10">
-        <v>17.24826534545133</v>
+        <v>21.19230633481822</v>
       </c>
       <c r="R10">
-        <v>155.234388109062</v>
+        <v>190.730757013364</v>
       </c>
       <c r="S10">
-        <v>0.01020053249661182</v>
+        <v>0.009594975628214516</v>
       </c>
       <c r="T10">
-        <v>0.01020053249661182</v>
+        <v>0.009594975628214516</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H11">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>260.960411</v>
       </c>
       <c r="O11">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P11">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q11">
-        <v>196.9978834354523</v>
+        <v>223.3821408116013</v>
       </c>
       <c r="R11">
-        <v>1772.980950919071</v>
+        <v>2010.439267304411</v>
       </c>
       <c r="S11">
-        <v>0.1165035017435544</v>
+        <v>0.1011379395429111</v>
       </c>
       <c r="T11">
-        <v>0.1165035017435544</v>
+        <v>0.1011379395429111</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H12">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N12">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O12">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P12">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q12">
-        <v>58.86033011089966</v>
+        <v>148.4665878393614</v>
       </c>
       <c r="R12">
-        <v>529.742970998097</v>
+        <v>1336.199290554253</v>
       </c>
       <c r="S12">
-        <v>0.03480968654136972</v>
+        <v>0.06721936109343529</v>
       </c>
       <c r="T12">
-        <v>0.03480968654136971</v>
+        <v>0.06721936109343531</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H13">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N13">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O13">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P13">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q13">
-        <v>2.119775718035333</v>
+        <v>3.100464074448555</v>
       </c>
       <c r="R13">
-        <v>19.077981462318</v>
+        <v>27.904176670037</v>
       </c>
       <c r="S13">
-        <v>0.001253624098672066</v>
+        <v>0.001403758362137876</v>
       </c>
       <c r="T13">
-        <v>0.001253624098672066</v>
+        <v>0.001403758362137877</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H14">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N14">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O14">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P14">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q14">
-        <v>2.923661353416667</v>
+        <v>6.254568401685333</v>
       </c>
       <c r="R14">
-        <v>26.31295218075001</v>
+        <v>56.291115615168</v>
       </c>
       <c r="S14">
-        <v>0.001729037792920992</v>
+        <v>0.002831802751009362</v>
       </c>
       <c r="T14">
-        <v>0.001729037792920991</v>
+        <v>0.002831802751009362</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H15">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>260.960411</v>
       </c>
       <c r="O15">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P15">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q15">
-        <v>33.39205925754167</v>
+        <v>65.92764644618133</v>
       </c>
       <c r="R15">
-        <v>300.528533317875</v>
+        <v>593.348818015632</v>
       </c>
       <c r="S15">
-        <v>0.01974788645486416</v>
+        <v>0.02984923636354556</v>
       </c>
       <c r="T15">
-        <v>0.01974788645486416</v>
+        <v>0.02984923636354557</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H16">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N16">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O16">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P16">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q16">
-        <v>9.977100244458333</v>
+        <v>43.81752577257066</v>
       </c>
       <c r="R16">
-        <v>89.793902200125</v>
+        <v>394.357731953136</v>
       </c>
       <c r="S16">
-        <v>0.005900404082801862</v>
+        <v>0.01983871341014583</v>
       </c>
       <c r="T16">
-        <v>0.005900404082801861</v>
+        <v>0.01983871341014584</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H17">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N17">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O17">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P17">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q17">
-        <v>0.3593118624166667</v>
+        <v>0.9150521101493332</v>
       </c>
       <c r="R17">
-        <v>3.23380676175</v>
+        <v>8.235468991344</v>
       </c>
       <c r="S17">
-        <v>0.0002124951266456422</v>
+        <v>0.0004142967054512628</v>
       </c>
       <c r="T17">
-        <v>0.0002124951266456422</v>
+        <v>0.0004142967054512629</v>
       </c>
     </row>
   </sheetData>
